--- a/files/02-Excel-data/010.1-010.4_PI-Agriculture-Prices.xlsx
+++ b/files/02-Excel-data/010.1-010.4_PI-Agriculture-Prices.xlsx
@@ -35061,7 +35061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH4"/>
+  <dimension ref="A1:BI5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35357,12 +35357,17 @@
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
+          <t>шкурки невыделанные лисицы клеточного разведения</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>шкурки невыделанные песца клеточного разведения</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
           <t>шкурки невыделанные норки клеточного разведения</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>шкурки невыделанные соболя клеточного разведения</t>
         </is>
       </c>
     </row>
@@ -35523,10 +35528,11 @@
       <c r="BF2" t="n">
         <v>359005.7</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="n">
         <v>2638.9</v>
       </c>
-      <c r="BH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -35683,10 +35689,11 @@
       <c r="BF3" t="n">
         <v>230473.9</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="n">
         <v>2682.8</v>
       </c>
-      <c r="BH3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -35839,10 +35846,170 @@
       <c r="BF4" t="n">
         <v>469935.1</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="n">
         <v>2572.5</v>
       </c>
-      <c r="BH4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>April 2024</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10712.6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10487.6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10424.4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17643.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10400.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10101.5</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>12058.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10614.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8732.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10654.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9436.700000000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7158.7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>9875.200000000001</v>
+      </c>
+      <c r="P5" t="n">
+        <v>10838.1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>14808.6</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>22518.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>20987.6</v>
+      </c>
+      <c r="U5" t="n">
+        <v>43874.9</v>
+      </c>
+      <c r="V5" t="n">
+        <v>34392.7</v>
+      </c>
+      <c r="W5" t="n">
+        <v>34285.8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>25191.6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>39423.4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>134717.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>25032.7</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>124894.7</v>
+      </c>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>124894.7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>217989.3</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="n">
+        <v>217989.3</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>22639.2</v>
+      </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="n">
+        <v>22766.4</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>22352.6</v>
+      </c>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="n">
+        <v>13630</v>
+      </c>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
+        <v>143433.8</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>7519</v>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="n">
+        <v>64727.6</v>
+      </c>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="n">
+        <v>118223.7</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>165434.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>34621.7</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>99603.60000000001</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>176090.8</v>
+      </c>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="n">
+        <v>114468.2</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>114793.5</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>9185.799999999999</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>174577.7</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>452363.3</v>
+      </c>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="n">
+        <v>2092.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/files/02-Excel-data/010.1-010.4_PI-Agriculture-Prices.xlsx
+++ b/files/02-Excel-data/010.1-010.4_PI-Agriculture-Prices.xlsx
@@ -35061,7 +35061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI5"/>
+  <dimension ref="A1:BI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35822,7 +35822,7 @@
         <v>160526.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>34509.9</v>
+        <v>34510.2</v>
       </c>
       <c r="AY4" t="n">
         <v>175990.1</v>
@@ -36010,6 +36010,970 @@
       <c r="BI5" t="n">
         <v>2092.6</v>
       </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>May 2024</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10541.9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10392.8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10374</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18662.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10357</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>11168.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11633.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10556.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8890.200000000001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10397.3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9064.200000000001</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8633.799999999999</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9542.6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10039</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>13383</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>23743.2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>20914.6</v>
+      </c>
+      <c r="U6" t="n">
+        <v>45372.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>33897.3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>35561.4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>27287.6</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>40437.4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>108787.4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>22681</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>84594.3</v>
+      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="n">
+        <v>84594.3</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>174747</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="n">
+        <v>174747</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>24139.8</v>
+      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="n">
+        <v>17675.9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>25039.2</v>
+      </c>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="n">
+        <v>14602.9</v>
+      </c>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
+        <v>162918</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>8323.700000000001</v>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="n">
+        <v>67081.5</v>
+      </c>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="n">
+        <v>121257.3</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>168208.3</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>34347.8</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>139717.2</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>187807.2</v>
+      </c>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="n">
+        <v>118861.5</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>116321.8</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>8508.799999999999</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>177879.1</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>392873.9</v>
+      </c>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>June 2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11657.4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11425.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11400.7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17354.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11380.4</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>12397.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11916.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9616.9</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11352.9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10333.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7226</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9303.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>12142.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>14671.5</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>31199.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>19194.4</v>
+      </c>
+      <c r="U7" t="n">
+        <v>43756.6</v>
+      </c>
+      <c r="V7" t="n">
+        <v>36455.9</v>
+      </c>
+      <c r="W7" t="n">
+        <v>36401</v>
+      </c>
+      <c r="X7" t="n">
+        <v>30076.7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>34430.2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>97870.7</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>22894.3</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>76193.10000000001</v>
+      </c>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>76193.10000000001</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>138165.3</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="n">
+        <v>138165.3</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17728.3</v>
+      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="n">
+        <v>19623.7</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>20783.3</v>
+      </c>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="n">
+        <v>16712.5</v>
+      </c>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="n">
+        <v>8360.299999999999</v>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="n">
+        <v>70971.39999999999</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>150146</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>539714.8</v>
+      </c>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="n">
+        <v>123793.1</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>174768.6</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>34131.3</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>126398.6</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>137966.8</v>
+      </c>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="n">
+        <v>120904.2</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>119062.6</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>7800.8</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>172327.7</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>287585.5</v>
+      </c>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>July 2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>12943.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12640.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12859.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13272.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12856</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>13320.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13246.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11567.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>12080</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10631.8</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7473.4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9214.9</v>
+      </c>
+      <c r="P8" t="n">
+        <v>10008.3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>13810.2</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>29693.2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>20729.8</v>
+      </c>
+      <c r="U8" t="n">
+        <v>42116.9</v>
+      </c>
+      <c r="V8" t="n">
+        <v>38367.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>36932.4</v>
+      </c>
+      <c r="X8" t="n">
+        <v>31702.2</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>37573.2</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>95208.89999999999</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21792.8</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>75005.60000000001</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>59196.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>75526.39999999999</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>121131.6</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="n">
+        <v>121131.6</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>28538.6</v>
+      </c>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="n">
+        <v>23026.7</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23150.7</v>
+      </c>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="n">
+        <v>23176.3</v>
+      </c>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="n">
+        <v>8530.299999999999</v>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="n">
+        <v>68989.89999999999</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>164414.9</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>260702.8</v>
+      </c>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="n">
+        <v>118151.4</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>175785.2</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>34029.9</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>133095.3</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>171550.6</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>53852.5</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>110989.1</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>118612.9</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>7529.7</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>131890.4</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>287928.1</v>
+      </c>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>August 2024</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12933.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12494.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12624.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12772.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12623.6</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>13631.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12845</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11561.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12978.8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10789.6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7319.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8431.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>11809.1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>15413.3</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>24346.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>22710.6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>44530.4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>40000.7</v>
+      </c>
+      <c r="W9" t="n">
+        <v>33081</v>
+      </c>
+      <c r="X9" t="n">
+        <v>37653</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>33609.1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>81590.8</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>25561.7</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>73987.2</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>53430.7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>77648.39999999999</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>125974.4</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="n">
+        <v>126009.1</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>22395.7</v>
+      </c>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="n">
+        <v>16217.7</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>16877</v>
+      </c>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="n">
+        <v>23130.8</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5502.3</v>
+      </c>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="n">
+        <v>9345.4</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>60166</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>59803.8</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>61980.4</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>246048.5</v>
+      </c>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="n">
+        <v>121272.5</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>177606</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>34629.9</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>107900.3</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>206922</v>
+      </c>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="n">
+        <v>117166.2</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>117172</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>7330.2</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>114874.7</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>399185</v>
+      </c>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>September 2024</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12951</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12593.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12695.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15476.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12683.7</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>13500.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>13037.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11769.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>13445.7</v>
+      </c>
+      <c r="M10" t="n">
+        <v>11526.4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8150.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8998.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>13705.9</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>12159.4</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>22088.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>20411.8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>44233.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>40591.7</v>
+      </c>
+      <c r="W10" t="n">
+        <v>32857</v>
+      </c>
+      <c r="X10" t="n">
+        <v>33846.3</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>35091.3</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>71821.7</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>23224.7</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>84087.60000000001</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>39352.1</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>86837.10000000001</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>122889.5</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="n">
+        <v>122996.6</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>22168</v>
+      </c>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="n">
+        <v>21113.4</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>18376.9</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>28238.9</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>18851.9</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4356.2</v>
+      </c>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="n">
+        <v>53495</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>43335</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>61137.7</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>164735.4</v>
+      </c>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="n">
+        <v>125322.4</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>176858.6</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>35859.4</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>142187</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>222822.4</v>
+      </c>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="n">
+        <v>127240.4</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>114237.7</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>7389.8</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>79170.5</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>399868.1</v>
+      </c>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>October 2024</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>13711.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13419.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12983.9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17072.6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12966</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10296.2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>13487.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13356.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11908.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>13316.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>12139.8</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8601.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8768</v>
+      </c>
+      <c r="P11" t="n">
+        <v>11455.3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>12493.6</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>25139.9</v>
+      </c>
+      <c r="T11" t="n">
+        <v>20031.3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>46948.3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>37571.2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>33415.9</v>
+      </c>
+      <c r="X11" t="n">
+        <v>33921.9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>36126</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>70305.2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>20198.9</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>80397.5</v>
+      </c>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="n">
+        <v>80958</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>119296.4</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="n">
+        <v>119318.4</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>19024.4</v>
+      </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="n">
+        <v>18957.4</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>17505.1</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>35242.2</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>17103.3</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4674.9</v>
+      </c>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="n">
+        <v>49855.9</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>37730</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>71867.3</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="n">
+        <v>40076.9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>123133.6</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>188547.4</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>37776.7</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>173567.7</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>194045.8</v>
+      </c>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="n">
+        <v>122258.9</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>113231.4</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>7643</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>146271.7</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>487659.8</v>
+      </c>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
